--- a/SchedulingData/static5/pso/scheduling1_19.xlsx
+++ b/SchedulingData/static5/pso/scheduling1_19.xlsx
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>57.72</v>
+        <v>49.64</v>
       </c>
       <c r="E2" t="n">
-        <v>27.408</v>
+        <v>25.736</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>60.28</v>
+        <v>66.52</v>
       </c>
       <c r="E3" t="n">
-        <v>26.152</v>
+        <v>25.528</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>60.28</v>
+        <v>49.64</v>
       </c>
       <c r="D4" t="n">
-        <v>116.4</v>
+        <v>119.94</v>
       </c>
       <c r="E4" t="n">
-        <v>21.68</v>
+        <v>21.316</v>
       </c>
     </row>
     <row r="5">
@@ -523,93 +523,93 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>68</v>
+        <v>56.38</v>
       </c>
       <c r="E5" t="n">
-        <v>24.9</v>
+        <v>27.032</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>65.90000000000001</v>
+        <v>103.8</v>
       </c>
       <c r="E6" t="n">
-        <v>25.58</v>
+        <v>26.26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>72.5</v>
+        <v>45.72</v>
       </c>
       <c r="E7" t="n">
-        <v>26.4</v>
+        <v>26.128</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>57.72</v>
+        <v>119.94</v>
       </c>
       <c r="D8" t="n">
-        <v>117.52</v>
+        <v>162.92</v>
       </c>
       <c r="E8" t="n">
-        <v>22.068</v>
+        <v>18.148</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>65.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>129.96</v>
+        <v>67.56</v>
       </c>
       <c r="E9" t="n">
-        <v>22.304</v>
+        <v>25.944</v>
       </c>
     </row>
     <row r="10">
@@ -618,131 +618,131 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>117.52</v>
+        <v>66.52</v>
       </c>
       <c r="D10" t="n">
-        <v>168.2</v>
+        <v>103.84</v>
       </c>
       <c r="E10" t="n">
-        <v>19.12</v>
+        <v>22.936</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>168.2</v>
+        <v>162.92</v>
       </c>
       <c r="D11" t="n">
-        <v>234.6</v>
+        <v>222.2</v>
       </c>
       <c r="E11" t="n">
-        <v>15.6</v>
+        <v>15.86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>67.56</v>
       </c>
       <c r="D12" t="n">
-        <v>70.5</v>
+        <v>146.32</v>
       </c>
       <c r="E12" t="n">
-        <v>27.08</v>
+        <v>22.668</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>70.5</v>
+        <v>45.72</v>
       </c>
       <c r="D13" t="n">
-        <v>124.8</v>
+        <v>130.32</v>
       </c>
       <c r="E13" t="n">
-        <v>23.78</v>
+        <v>20.788</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>68</v>
+        <v>103.8</v>
       </c>
       <c r="D14" t="n">
-        <v>114.2</v>
+        <v>153.9</v>
       </c>
       <c r="E14" t="n">
-        <v>21.42</v>
+        <v>22.88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>72.5</v>
+        <v>103.84</v>
       </c>
       <c r="D15" t="n">
-        <v>131.2</v>
+        <v>167.36</v>
       </c>
       <c r="E15" t="n">
-        <v>22.66</v>
+        <v>19.184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>131.2</v>
+        <v>130.32</v>
       </c>
       <c r="D16" t="n">
-        <v>224.64</v>
+        <v>183.46</v>
       </c>
       <c r="E16" t="n">
-        <v>18.396</v>
+        <v>18.104</v>
       </c>
     </row>
     <row r="17">
@@ -751,55 +751,55 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>129.96</v>
+        <v>222.2</v>
       </c>
       <c r="D17" t="n">
-        <v>194.28</v>
+        <v>292.62</v>
       </c>
       <c r="E17" t="n">
-        <v>17.992</v>
+        <v>12.948</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>114.2</v>
+        <v>153.9</v>
       </c>
       <c r="D18" t="n">
-        <v>181.06</v>
+        <v>214.32</v>
       </c>
       <c r="E18" t="n">
-        <v>16.844</v>
+        <v>19.448</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>181.06</v>
+        <v>183.46</v>
       </c>
       <c r="D19" t="n">
-        <v>242.72</v>
+        <v>260.76</v>
       </c>
       <c r="E19" t="n">
-        <v>12.788</v>
+        <v>15.464</v>
       </c>
     </row>
     <row r="20">
@@ -808,22 +808,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>242.72</v>
+        <v>56.38</v>
       </c>
       <c r="D20" t="n">
-        <v>300.4</v>
+        <v>116.18</v>
       </c>
       <c r="E20" t="n">
-        <v>9.619999999999999</v>
+        <v>23.652</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -831,13 +831,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>116.4</v>
+        <v>146.32</v>
       </c>
       <c r="D21" t="n">
-        <v>166.2</v>
+        <v>191.32</v>
       </c>
       <c r="E21" t="n">
-        <v>18.32</v>
+        <v>19.308</v>
       </c>
     </row>
     <row r="22">
@@ -846,131 +846,131 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>166.2</v>
+        <v>260.76</v>
       </c>
       <c r="D22" t="n">
-        <v>235.92</v>
+        <v>326.04</v>
       </c>
       <c r="E22" t="n">
-        <v>14.448</v>
+        <v>12.516</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>194.28</v>
+        <v>191.32</v>
       </c>
       <c r="D23" t="n">
-        <v>227.98</v>
+        <v>228.92</v>
       </c>
       <c r="E23" t="n">
-        <v>15.752</v>
+        <v>16.188</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>300.4</v>
+        <v>214.32</v>
       </c>
       <c r="D24" t="n">
-        <v>355.7</v>
+        <v>291.52</v>
       </c>
       <c r="E24" t="n">
-        <v>6.2</v>
+        <v>14.348</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>235.92</v>
+        <v>167.36</v>
       </c>
       <c r="D25" t="n">
-        <v>298.02</v>
+        <v>224.72</v>
       </c>
       <c r="E25" t="n">
-        <v>11.328</v>
+        <v>16.588</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>234.6</v>
+        <v>292.62</v>
       </c>
       <c r="D26" t="n">
-        <v>308.98</v>
+        <v>338.02</v>
       </c>
       <c r="E26" t="n">
-        <v>11.752</v>
+        <v>10.028</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>355.7</v>
+        <v>326.04</v>
       </c>
       <c r="D27" t="n">
-        <v>418.72</v>
+        <v>371.54</v>
       </c>
       <c r="E27" t="n">
-        <v>3.028</v>
+        <v>9.096</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>298.02</v>
+        <v>228.92</v>
       </c>
       <c r="D28" t="n">
-        <v>332.2</v>
+        <v>288.6</v>
       </c>
       <c r="E28" t="n">
-        <v>9.039999999999999</v>
+        <v>12.34</v>
       </c>
     </row>
     <row r="29">
@@ -979,74 +979,74 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>124.8</v>
+        <v>291.52</v>
       </c>
       <c r="D29" t="n">
-        <v>172.2</v>
+        <v>360.88</v>
       </c>
       <c r="E29" t="n">
-        <v>20.66</v>
+        <v>11.492</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>224.64</v>
+        <v>224.72</v>
       </c>
       <c r="D30" t="n">
-        <v>294.66</v>
+        <v>270.82</v>
       </c>
       <c r="E30" t="n">
-        <v>15.484</v>
+        <v>13.108</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>227.98</v>
+        <v>288.6</v>
       </c>
       <c r="D31" t="n">
-        <v>265.24</v>
+        <v>349.6</v>
       </c>
       <c r="E31" t="n">
-        <v>13.156</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>332.2</v>
+        <v>116.18</v>
       </c>
       <c r="D32" t="n">
-        <v>380.14</v>
+        <v>160.48</v>
       </c>
       <c r="E32" t="n">
-        <v>6.356</v>
+        <v>20.352</v>
       </c>
     </row>
     <row r="33">
@@ -1055,169 +1055,169 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>294.66</v>
+        <v>349.6</v>
       </c>
       <c r="D33" t="n">
-        <v>333.78</v>
+        <v>406</v>
       </c>
       <c r="E33" t="n">
-        <v>12.712</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>308.98</v>
+        <v>406</v>
       </c>
       <c r="D34" t="n">
-        <v>349.18</v>
+        <v>453.92</v>
       </c>
       <c r="E34" t="n">
-        <v>8.372</v>
+        <v>2.168</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>265.24</v>
+        <v>270.82</v>
       </c>
       <c r="D35" t="n">
-        <v>311.34</v>
+        <v>330.7</v>
       </c>
       <c r="E35" t="n">
-        <v>9.676</v>
+        <v>9.26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>311.34</v>
+        <v>160.48</v>
       </c>
       <c r="D36" t="n">
-        <v>385.16</v>
+        <v>207.78</v>
       </c>
       <c r="E36" t="n">
-        <v>5.924</v>
+        <v>16.752</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>349.18</v>
+        <v>338.02</v>
       </c>
       <c r="D37" t="n">
-        <v>389.04</v>
+        <v>386.94</v>
       </c>
       <c r="E37" t="n">
-        <v>5.516</v>
+        <v>7.256</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>380.14</v>
+        <v>330.7</v>
       </c>
       <c r="D38" t="n">
-        <v>436.02</v>
+        <v>390.12</v>
       </c>
       <c r="E38" t="n">
-        <v>3.388</v>
+        <v>4.948</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>333.78</v>
+        <v>360.88</v>
       </c>
       <c r="D39" t="n">
-        <v>383.98</v>
+        <v>427.74</v>
       </c>
       <c r="E39" t="n">
-        <v>9.332000000000001</v>
+        <v>6.916</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>172.2</v>
+        <v>371.54</v>
       </c>
       <c r="D40" t="n">
-        <v>219.8</v>
+        <v>453.74</v>
       </c>
       <c r="E40" t="n">
-        <v>18.02</v>
+        <v>5.976</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>383.98</v>
+        <v>390.12</v>
       </c>
       <c r="D41" t="n">
-        <v>444.4</v>
+        <v>423.82</v>
       </c>
       <c r="E41" t="n">
-        <v>5.9</v>
+        <v>2.708</v>
       </c>
     </row>
   </sheetData>
